--- a/biology/Zoologie/Alwin_Karl_Haagner/Alwin_Karl_Haagner.xlsx
+++ b/biology/Zoologie/Alwin_Karl_Haagner/Alwin_Karl_Haagner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alwin Karl Haagner est un ornithologue sud-africain, né en 1880 et mort en 1962.
 Il travaille pour le Transvaal Museum à partir de 1906 où il commence à former une riche collection ornithologie. Haagner quitte le muséum en 1911 où il est remplacé par Austin Roberts (1883-1948). Il devient le directeur du Jardin zoologique de Pretoria. Il s’intéresse au Parc national Kruger et joue un rôle important dans les travaux conduisant au National Parks Acts de 1926. 
-En 1909, il nomme l'espèce Sheppardia gunningi, rouge-gorge de Gunning en honneur de son collègue, Jan Willem Boudewijn Gunning[1].
+En 1909, il nomme l'espèce Sheppardia gunningi, rouge-gorge de Gunning en honneur de son collègue, Jan Willem Boudewijn Gunning.
 Il est l’auteur de Sketches of South African Bird-Life.
 </t>
         </is>
@@ -516,11 +528,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ouvrages
-(en) Alwin Karl Haagner et Ivy, R. H., Sketches of South African bird-life, Londres, R. H. Porter, 1908, 321 p. (DOI 10.5962/bhl.title.18268, lire en ligne)
-Articles
-(en) Gunning, J. W. B. et Haagner, A. K., « On the South African species of Centropus », South African Journal of Natural History, vol. 4, no 1,‎ 1908, p. 36-37
-(en) Gunning, J. W. B. et Haagner, A. K., « A check list of the birds of South Africa », South African Journal of Natural History, vol. 2 (supplément),‎ 1910, p. 71-156[1].</t>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Alwin Karl Haagner et Ivy, R. H., Sketches of South African bird-life, Londres, R. H. Porter, 1908, 321 p. (DOI 10.5962/bhl.title.18268, lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alwin_Karl_Haagner</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alwin_Karl_Haagner</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Gunning, J. W. B. et Haagner, A. K., « On the South African species of Centropus », South African Journal of Natural History, vol. 4, no 1,‎ 1908, p. 36-37
+(en) Gunning, J. W. B. et Haagner, A. K., « A check list of the birds of South Africa », South African Journal of Natural History, vol. 2 (supplément),‎ 1910, p. 71-156.</t>
         </is>
       </c>
     </row>
